--- a/CircleRoom現時点での予想タスク.xlsx
+++ b/CircleRoom現時点での予想タスク.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fko2347036\Desktop\tashiro\MyGames\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D88ACD24-3E37-4E3B-9B36-8B1CA4E4BF60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15B189D6-7E9A-471F-A7CA-4B81AACB99F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8535" yWindow="1320" windowWidth="21600" windowHeight="13590" xr2:uid="{DB540567-ED57-470D-8099-7A3CF3591806}"/>
+    <workbookView xWindow="1020" yWindow="1860" windowWidth="21600" windowHeight="13590" xr2:uid="{DB540567-ED57-470D-8099-7A3CF3591806}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="39">
   <si>
     <t>移動</t>
     <rPh sb="0" eb="2">
@@ -157,16 +157,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>クリア条件表示</t>
-    <rPh sb="3" eb="5">
-      <t>ジョウケン</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>画面(Sceneでの処理)</t>
     <rPh sb="0" eb="2">
       <t>ガメン</t>
@@ -280,26 +270,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ステージ移動するまでそれは表示しっぱなしに</t>
-    <rPh sb="4" eb="6">
-      <t>イドウ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ゲームスタートしたら上に戻る</t>
-    <rPh sb="10" eb="11">
-      <t>ウエ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>モド</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>オプション画面</t>
     <rPh sb="5" eb="7">
       <t>ガメン</t>
@@ -376,6 +346,13 @@
     <t>ゲーム終了</t>
     <rPh sb="3" eb="5">
       <t>シュウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>*これは余裕があればのタスク</t>
+    <rPh sb="4" eb="6">
+      <t>ヨユウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -401,7 +378,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -411,6 +388,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -444,11 +439,23 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -765,10 +772,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2484877-67B6-47C7-8B48-1F97DDACBE0E}">
-  <dimension ref="A1:G49"/>
+  <dimension ref="A1:J49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D50" sqref="D50"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F47" sqref="F47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -780,249 +787,412 @@
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B2" t="s">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="B2" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="C3" t="s">
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="C4" t="s">
+      <c r="D3" s="5"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="C4" s="5" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="D5" t="s">
+      <c r="D4" s="5"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A5" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="D6" t="s">
+      <c r="C5" s="5"/>
+      <c r="D5" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A6" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="C7" t="s">
+      <c r="C6" s="5"/>
+      <c r="D6" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="C7" s="5" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="D8" t="s">
+      <c r="D7" s="5"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A8" s="1">
+        <v>1</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="D9" t="s">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A9" s="1">
+        <v>2</v>
+      </c>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="C10" t="s">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A10" s="1">
+        <v>1</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="C11" t="s">
+      <c r="D10" s="5"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="C11" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B12" t="s">
+      <c r="D11" s="5"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="B12" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="C13" t="s">
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="C13" s="5" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="D14" t="s">
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A14" s="1">
+        <v>2</v>
+      </c>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="D15" t="s">
+      <c r="E14" s="5"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="C15" s="5"/>
+      <c r="D15" s="5" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="E16" t="s">
+      <c r="E15" s="5"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A16" s="1">
+        <v>1</v>
+      </c>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="D17" t="s">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A17" s="1">
+        <v>1</v>
+      </c>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="C18" t="s">
+      <c r="E17" s="5"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="C18" s="5" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="D19" t="s">
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="C19" s="5"/>
+      <c r="D19" s="5" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="E20" t="s">
+      <c r="E19" s="5"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A20" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="E21" t="s">
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A21" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B22" t="s">
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F21" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="B22" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="C23" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D23" s="5"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="C24" s="5"/>
+      <c r="D24" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A25" s="1">
+        <v>8</v>
+      </c>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="C27" s="5"/>
+      <c r="D27" s="5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="C23" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="D24" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="E25" t="s">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A28" s="1">
+        <v>3</v>
+      </c>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A29" s="1">
+        <v>7</v>
+      </c>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A30" s="1">
+        <v>2</v>
+      </c>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="C31" s="5"/>
+      <c r="D31" s="5" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="D26" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="D27" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="E28" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="E29" t="s">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A32" s="1">
+        <v>2</v>
+      </c>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A33" s="1">
+        <v>2</v>
+      </c>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="C34" s="5"/>
+      <c r="D34" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A35" s="1">
+        <v>2</v>
+      </c>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+      <c r="E35" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A36" s="1">
+        <v>2</v>
+      </c>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="C39" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D39" s="5"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A40" s="1">
+        <v>1</v>
+      </c>
+      <c r="C40" s="5"/>
+      <c r="D40" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A41" s="1">
+        <v>2</v>
+      </c>
+      <c r="C41" s="5"/>
+      <c r="D41" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="D30" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="D31" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="E32" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="33" spans="3:7" x14ac:dyDescent="0.4">
-      <c r="E33" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="34" spans="3:7" x14ac:dyDescent="0.4">
-      <c r="D34" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="35" spans="3:7" x14ac:dyDescent="0.4">
-      <c r="E35" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="36" spans="3:7" x14ac:dyDescent="0.4">
-      <c r="E36" t="s">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="C42" s="5" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="37" spans="3:7" x14ac:dyDescent="0.4">
-      <c r="G37" t="s">
+      <c r="D42" s="5"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="C43" s="5"/>
+      <c r="D43" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A44" s="1">
+        <v>1</v>
+      </c>
+      <c r="C44" s="5"/>
+      <c r="D44" s="5"/>
+      <c r="E44" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A45" s="1">
+        <v>2</v>
+      </c>
+      <c r="C45" s="5"/>
+      <c r="D45" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="3:7" x14ac:dyDescent="0.4">
-      <c r="G38" t="s">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A46" s="1">
+        <v>1</v>
+      </c>
+      <c r="C46" s="5"/>
+      <c r="D46" s="5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="39" spans="3:7" x14ac:dyDescent="0.4">
-      <c r="C39" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="40" spans="3:7" x14ac:dyDescent="0.4">
-      <c r="D40" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="41" spans="3:7" x14ac:dyDescent="0.4">
-      <c r="D41" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="42" spans="3:7" x14ac:dyDescent="0.4">
-      <c r="C42" t="s">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="C47" s="5"/>
+      <c r="D47" s="5"/>
+      <c r="E47" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="43" spans="3:7" x14ac:dyDescent="0.4">
-      <c r="D43" t="s">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="C48" s="5"/>
+      <c r="D48" s="5"/>
+      <c r="E48" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A49" s="1">
+        <v>2</v>
+      </c>
+      <c r="C49" s="5"/>
+      <c r="D49" s="5" t="s">
         <v>37</v>
-      </c>
-    </row>
-    <row r="44" spans="3:7" x14ac:dyDescent="0.4">
-      <c r="E44" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="45" spans="3:7" x14ac:dyDescent="0.4">
-      <c r="D45" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="46" spans="3:7" x14ac:dyDescent="0.4">
-      <c r="D46" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="47" spans="3:7" x14ac:dyDescent="0.4">
-      <c r="E47" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="48" spans="3:7" x14ac:dyDescent="0.4">
-      <c r="E48" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="49" spans="4:4" x14ac:dyDescent="0.4">
-      <c r="D49" t="s">
-        <v>40</v>
       </c>
     </row>
   </sheetData>
